--- a/public/uploads/cotizacion-${SER_NOMBRE}-${NODO_CIU_NOMBRE}.xlsx
+++ b/public/uploads/cotizacion-${SER_NOMBRE}-${NODO_CIU_NOMBRE}.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Downloads\nedetel-master\nedetel-master\public\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CR\NED\nedetel-master\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A83C1BB-52F9-4762-B12B-B9819427CDA5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51301729-D1AB-43F2-AE7F-FA3E8869ED33}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cotizacion_Internet" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -2955,7 +2956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK745"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
